--- a/data/trans_camb/P15_5-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P15_5-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-31,54</t>
+          <t>-32,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-52,29</t>
+          <t>-53,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-59,31</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,25</t>
+          <t>-23,9</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-23,92</t>
+          <t>-42,88</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-43,59</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-45,38</t>
+          <t>-28,35</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-27,83</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-48,01</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-52,74</t>
+          <t>-48,08</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 10,01</t>
+          <t>-8,18; 8,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-41,52; -20,85</t>
+          <t>-42,42; -22,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-62,01; -40,6</t>
+          <t>-63,23; -41,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-68,43; -47,87</t>
+          <t>-1,66; 14,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 14,7</t>
+          <t>-34,44; -13,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,61; -13,79</t>
+          <t>-52,92; -32,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-53,63; -34,64</t>
+          <t>-1,59; 9,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-56,15; -35,71</t>
+          <t>-35,65; -21,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 9,31</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-34,85; -20,27</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-55,18; -40,63</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-59,45; -44,21</t>
+          <t>-54,99; -41,14</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-37,7%</t>
+          <t>-38,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-62,49%</t>
+          <t>-63,52%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-70,89%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>-29,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-29,67%</t>
+          <t>-53,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-54,08%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-56,29%</t>
+          <t>-34,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-33,85%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-58,4%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-64,15%</t>
+          <t>-58,48%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 12,45</t>
+          <t>-9,54; 11,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-48,59; -25,49</t>
+          <t>-49,54; -28,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-72,53; -50,74</t>
+          <t>-74,12; -52,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-80,31; -59,05</t>
+          <t>-1,94; 19,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 19,74</t>
+          <t>-40,85; -18,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,43; -18,23</t>
+          <t>-62,9; -42,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-64,56; -44,78</t>
+          <t>-1,87; 11,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-67,82; -45,14</t>
+          <t>-42,4; -27,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 11,66</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-41,61; -25,69</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-65,55; -50,82</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-71,71; -55,85</t>
+          <t>-66,11; -51,44</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,38</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-28,07</t>
+          <t>-29,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-44,4</t>
+          <t>-44,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-57,98</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>-31,31</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-31,24</t>
+          <t>-47,68</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-47,1</t>
+          <t>7,42</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-56,76</t>
+          <t>-30,21</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,26</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-29,59</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-45,69</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-57,37</t>
+          <t>-45,91</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 14,78</t>
+          <t>0,17; 14,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-37,76; -17,8</t>
+          <t>-39,67; -19,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-54,7; -30,84</t>
+          <t>-54,97; -31,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-66,85; -46,26</t>
+          <t>0,56; 14,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 13,42</t>
+          <t>-39,1; -22,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-38,49; -23,3</t>
+          <t>-55,46; -38,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-54,73; -38,26</t>
+          <t>2,3; 12,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-64,33; -47,95</t>
+          <t>-36,71; -23,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 11,86</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-36,22; -23,12</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-52,67; -38,58</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-63,9; -49,92</t>
+          <t>-53,04; -38,7</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-34,22%</t>
+          <t>-35,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-54,13%</t>
+          <t>-54,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-70,69%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>-36,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-36,83%</t>
+          <t>-56,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-55,51%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-66,9%</t>
+          <t>-36,24%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-35,49%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-54,81%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-68,81%</t>
+          <t>-55,06%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 19,12</t>
+          <t>0,26; 19,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,18; -22,73</t>
+          <t>-46,97; -25,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-64,95; -37,35</t>
+          <t>-64,94; -39,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-79,73; -58,29</t>
+          <t>0,72; 17,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 16,58</t>
+          <t>-45,39; -27,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,48; -28,21</t>
+          <t>-63,89; -47,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-63,22; -46,54</t>
+          <t>2,65; 15,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-74,66; -58,03</t>
+          <t>-43,45; -29,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 14,7</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-42,93; -28,71</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-61,84; -47,26</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-75,55; -61,25</t>
+          <t>-62,24; -46,97</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,7</t>
+          <t>9,16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-18,65</t>
+          <t>-18,88</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-38,82</t>
+          <t>-39,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-48,62</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>-21,95</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-21,95</t>
+          <t>-42,55</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-42,51</t>
+          <t>8,52</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-48,83</t>
+          <t>-20,49</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,76</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-20,36</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-40,74</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>-48,57</t>
+          <t>-40,96</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,93; 16,41</t>
+          <t>2,9; 16,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-26,78; -9,95</t>
+          <t>-26,7; -9,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-47,33; -28,04</t>
+          <t>-48,14; -29,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-56,96; -39,96</t>
+          <t>0,96; 14,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 13,92</t>
+          <t>-29,34; -15,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-29,16; -15,44</t>
+          <t>-49,12; -35,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-48,61; -35,4</t>
+          <t>3,87; 13,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-55,35; -40,67</t>
+          <t>-25,66; -14,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 13,01</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-25,8; -14,71</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-46,36; -35,02</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>-54,09; -42,79</t>
+          <t>-46,3; -34,75</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-23,64%</t>
+          <t>-23,94%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-49,23%</t>
+          <t>-49,75%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-61,64%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>-29,46%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-29,46%</t>
+          <t>-57,12%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-57,07%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-65,55%</t>
+          <t>-26,73%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-26,57%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-53,15%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>-63,36%</t>
+          <t>-53,43%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,63; 22,26</t>
+          <t>3,63; 22,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-32,86; -13,35</t>
+          <t>-32,58; -13,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-58,6; -37,75</t>
+          <t>-59,15; -38,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-70,55; -51,77</t>
+          <t>1,27; 20,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 19,55</t>
+          <t>-37,74; -21,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,83; -21,61</t>
+          <t>-63,54; -49,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-63,44; -49,62</t>
+          <t>4,84; 18,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-72,11; -56,55</t>
+          <t>-32,69; -19,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,09; 17,56</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-32,83; -19,87</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-59,2; -46,57</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>-68,97; -56,9</t>
+          <t>-59,51; -46,38</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,31</t>
+          <t>9,3</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-23,66</t>
+          <t>-23,99</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-37,97</t>
+          <t>-37,86</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-53,0</t>
+          <t>9,25</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,39</t>
+          <t>-19,16</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-19,52</t>
+          <t>-41,53</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-41,88</t>
+          <t>9,27</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-54,28</t>
+          <t>-21,53</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,35</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>-21,56</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-39,96</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>-53,64</t>
+          <t>-39,73</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,97; 15,76</t>
+          <t>2,59; 15,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-30,9; -15,53</t>
+          <t>-31,41; -16,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-44,72; -29,79</t>
+          <t>-45,08; -29,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-60,53; -43,28</t>
+          <t>3,04; 14,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,67; 15,32</t>
+          <t>-26,33; -12,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-26,48; -12,68</t>
+          <t>-48,2; -35,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-47,7; -34,95</t>
+          <t>4,91; 13,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-60,88; -46,95</t>
+          <t>-26,79; -16,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,75; 13,92</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>-26,83; -16,27</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>-44,78; -34,51</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>-58,51; -47,84</t>
+          <t>-44,66; -34,62</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-30,91%</t>
+          <t>-31,34%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-49,6%</t>
+          <t>-49,45%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-69,23%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>-24,82%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-25,29%</t>
+          <t>-53,81%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-54,26%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-70,33%</t>
+          <t>-28,01%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>-28,04%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-51,98%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>-69,77%</t>
+          <t>-51,68%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,79; 22,28</t>
+          <t>3,52; 21,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-39,07; -20,71</t>
+          <t>-40,27; -22,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-57,05; -40,26</t>
+          <t>-57,28; -39,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-77,66; -59,33</t>
+          <t>3,72; 19,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,71; 20,91</t>
+          <t>-32,66; -16,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-33,3; -17,49</t>
+          <t>-60,49; -46,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-60,16; -47,17</t>
+          <t>6,23; 18,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-77,01; -62,08</t>
+          <t>-34,04; -22,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,9; 18,73</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>-34,06; -21,85</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>-56,95; -46,52</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>-75,33; -63,61</t>
+          <t>-56,7; -45,95</t>
         </is>
       </c>
     </row>
@@ -1760,62 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-23,91</t>
+          <t>-24,23</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-39,64</t>
+          <t>-40,09</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-52,58</t>
+          <t>10,05</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>9,75</t>
+          <t>-20,77</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-20,6</t>
+          <t>-34,91</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-34,82</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-50,53</t>
+          <t>-22,52</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>6,92</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>-22,28</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>-37,25</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>-51,63</t>
+          <t>-37,51</t>
         </is>
       </c>
     </row>
@@ -1828,62 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 10,51</t>
+          <t>-3,01; 10,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-31,16; -15,92</t>
+          <t>-32,31; -16,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-47,28; -31,46</t>
+          <t>-47,86; -31,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-60,53; -44,55</t>
+          <t>3,74; 17,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,59; 16,78</t>
+          <t>-28,79; -13,03</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-28,13; -12,84</t>
+          <t>-43,15; -26,49</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-42,27; -26,14</t>
+          <t>2,53; 11,97</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-57,69; -41,1</t>
+          <t>-27,69; -16,63</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,1; 11,49</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>-27,26; -16,54</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>-43,16; -31,14</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>-56,88; -45,73</t>
+          <t>-43,12; -31,36</t>
         </is>
       </c>
     </row>
@@ -1896,62 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-28,66%</t>
+          <t>-29,04%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-47,51%</t>
+          <t>-48,04%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-63,02%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>-26,3%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-26,08%</t>
+          <t>-44,2%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-44,08%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-63,97%</t>
+          <t>-27,72%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>-27,42%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>-45,85%</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>-63,56%</t>
+          <t>-46,18%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 13,29</t>
+          <t>-3,41; 12,9</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-36,13; -19,95</t>
+          <t>-37,25; -20,86</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-56,02; -38,53</t>
+          <t>-56,5; -39,55</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-71,76; -54,19</t>
+          <t>4,48; 23,56</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3,29; 22,68</t>
+          <t>-35,22; -17,13</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-34,83; -16,79</t>
+          <t>-53,0; -34,92</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-52,03; -34,85</t>
+          <t>3,02; 15,44</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-71,25; -54,23</t>
+          <t>-33,55; -21,06</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2,71; 14,91</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>-32,8; -20,97</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>-51,81; -39,64</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>-68,78; -57,4</t>
+          <t>-51,9; -39,49</t>
         </is>
       </c>
     </row>
@@ -2036,62 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-7,1</t>
+          <t>-7,45</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-20,27</t>
+          <t>-20,63</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-37,07</t>
+          <t>7,16</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>7,77</t>
+          <t>-12,56</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-12,6</t>
+          <t>-24,17</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-23,61</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-41,56</t>
+          <t>-10,37</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>-10,23</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>-22,18</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>-39,64</t>
+          <t>-22,65</t>
         </is>
       </c>
     </row>
@@ -2104,62 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 12,6</t>
+          <t>-4,0; 10,89</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-15,43; 2,05</t>
+          <t>-15,37; 0,66</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-29,39; -11,81</t>
+          <t>-29,34; -11,22</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-46,64; -27,28</t>
+          <t>1,92; 12,33</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,23; 12,98</t>
+          <t>-19,18; -5,78</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-19,29; -5,93</t>
+          <t>-31,15; -16,95</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-31,47; -14,94</t>
+          <t>0,95; 10,06</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-51,67; -31,4</t>
+          <t>-15,71; -4,86</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,84; 10,96</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>-15,57; -5,42</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>-27,76; -16,31</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>-47,18; -32,33</t>
+          <t>-28,75; -16,95</t>
         </is>
       </c>
     </row>
@@ -2172,62 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-8,48%</t>
+          <t>-8,9%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-24,22%</t>
+          <t>-24,65%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-44,29%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>-14,47%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-14,5%</t>
+          <t>-27,83%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-27,18%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-47,85%</t>
+          <t>-12,13%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>-11,97%</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>-25,94%</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
-        <is>
-          <t>-46,36%</t>
+          <t>-26,49%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 15,95</t>
+          <t>-4,58; 13,55</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-17,7; 2,49</t>
+          <t>-17,84; 1,19</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-34,45; -14,66</t>
+          <t>-34,3; -14,44</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-54,62; -33,48</t>
+          <t>2,27; 14,77</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>3,63; 15,65</t>
+          <t>-21,69; -6,76</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-21,98; -7,11</t>
+          <t>-35,39; -19,91</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-35,75; -17,58</t>
+          <t>1,1; 12,14</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-58,79; -37,05</t>
+          <t>-18,14; -5,82</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2,21; 13,29</t>
-        </is>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
-        <is>
-          <t>-17,83; -6,47</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="inlineStr">
-        <is>
-          <t>-31,68; -19,4</t>
-        </is>
-      </c>
-      <c r="N27" s="2" t="inlineStr">
-        <is>
-          <t>-54,42; -38,5</t>
+          <t>-33,27; -20,29</t>
         </is>
       </c>
     </row>
@@ -2312,62 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-22,12</t>
+          <t>-22,66</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-38,89</t>
+          <t>-39,18</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-51,37</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>-21,14</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-21,2</t>
+          <t>-38,6</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-38,55</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-49,1</t>
+          <t>-21,89</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
-        </is>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>-21,65</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="inlineStr">
-        <is>
-          <t>-38,72</t>
-        </is>
-      </c>
-      <c r="N28" s="2" t="inlineStr">
-        <is>
-          <t>-50,23</t>
+          <t>-38,88</t>
         </is>
       </c>
     </row>
@@ -2380,62 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>3,13; 9,29</t>
+          <t>3,52; 9,38</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-25,99; -18,55</t>
+          <t>-26,73; -19,12</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-42,67; -35,08</t>
+          <t>-42,99; -34,97</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-55,34; -47,26</t>
+          <t>5,51; 10,67</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,12; 10,57</t>
+          <t>-24,28; -17,91</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-24,07; -17,91</t>
+          <t>-41,81; -35,16</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-41,7; -34,88</t>
+          <t>5,21; 8,91</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-52,71; -45,26</t>
+          <t>-24,24; -19,42</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5,09; 9,07</t>
-        </is>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>-24,16; -19,26</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="inlineStr">
-        <is>
-          <t>-41,34; -36,17</t>
-        </is>
-      </c>
-      <c r="N29" s="2" t="inlineStr">
-        <is>
-          <t>-52,91; -47,67</t>
+          <t>-41,21; -36,44</t>
         </is>
       </c>
     </row>
@@ -2448,62 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-27,27%</t>
+          <t>-27,94%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-47,95%</t>
+          <t>-48,3%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-63,33%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>-26,29%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-26,37%</t>
+          <t>-48,0%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-47,94%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-61,06%</t>
+          <t>-27,1%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
-        </is>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>-26,81%</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>-47,95%</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="inlineStr">
-        <is>
-          <t>-62,19%</t>
+          <t>-48,15%</t>
         </is>
       </c>
     </row>
@@ -2516,76 +2087,68 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>3,78; 11,75</t>
+          <t>4,23; 11,79</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-31,49; -23,33</t>
+          <t>-32,24; -23,96</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-51,84; -43,5</t>
+          <t>-52,23; -43,78</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-67,48; -59,24</t>
+          <t>6,77; 13,58</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>6,24; 13,46</t>
+          <t>-29,76; -22,46</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-29,42; -22,69</t>
+          <t>-51,19; -44,07</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-51,25; -43,76</t>
+          <t>6,37; 11,19</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-64,7; -56,41</t>
+          <t>-29,78; -24,38</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>6,16; 11,36</t>
-        </is>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
-        <is>
-          <t>-29,5; -23,9</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="inlineStr">
-        <is>
-          <t>-50,72; -45,13</t>
-        </is>
-      </c>
-      <c r="N31" s="2" t="inlineStr">
-        <is>
-          <t>-64,85; -59,37</t>
+          <t>-50,83; -45,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
